--- a/medicine/Maladies infectieuses/Bezlotoxumab/Bezlotoxumab.xlsx
+++ b/medicine/Maladies infectieuses/Bezlotoxumab/Bezlotoxumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bezlotoxumab est un anticorps monoclonal dirigé contre la toxine B du clostridium difficile et utilisé comme médicament pour éviter la récidive des infections à ce germe. Le nom de spécialité donnée par Merck Sharp &amp; Dohme Corp pour cette molécule est Zinplava.L'agence américaine des médicaments « FDA » a approuvé ZINPLAVA le 21 octobre 2016 pour prévenir les rechutes d'infection à Clostridium difficile[1].L'agence européenne du médicament a autorisé bezlotoxumab le 22 novembre 2016 [2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bezlotoxumab est un anticorps monoclonal dirigé contre la toxine B du clostridium difficile et utilisé comme médicament pour éviter la récidive des infections à ce germe. Le nom de spécialité donnée par Merck Sharp &amp; Dohme Corp pour cette molécule est Zinplava.L'agence américaine des médicaments « FDA » a approuvé ZINPLAVA le 21 octobre 2016 pour prévenir les rechutes d'infection à Clostridium difficile.L'agence européenne du médicament a autorisé bezlotoxumab le 22 novembre 2016 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se fixe sur un site de la toxine B, empêchant sa fixation sur les cellules cibles[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se fixe sur un site de la toxine B, empêchant sa fixation sur les cellules cibles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En association avec la vancomycine ou le métronidazole[4], ou utilisé seul[5], il diminue le taux de récidive d'une infection à clostridium difficile.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En association avec la vancomycine ou le métronidazole, ou utilisé seul, il diminue le taux de récidive d'une infection à clostridium difficile.
 </t>
         </is>
       </c>
